--- a/trained_models_old_clean/MLP/breast_cancer/results_table.xlsx
+++ b/trained_models_old_clean/MLP/breast_cancer/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.016312174181024184, 'beta_2': 0.18504709291094776, 'epsilon': 0.4008582413028051, 'learning_rate': 'invscaling', 'momentum': 0.6802701510460296, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8694885305466322}</t>
+          <t>{'beta_1': 0.28685443267485683, 'beta_2': 0.44629001466989243, 'epsilon': 0.12367189482556977, 'learning_rate': 'constant', 'momentum': 0.9792702400358185, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8809980607861312}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9658536585365853</v>
+        <v>0.9609756097560975</v>
       </c>
     </row>
     <row r="3">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9860054985757924, 'beta_2': 0.32708399264862975, 'epsilon': 0.7027269929350685, 'learning_rate': 'adaptive', 'momentum': 0.8552913450076486, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.23282429241813685}</t>
+          <t>{'beta_1': 0.5366329578207587, 'beta_2': 0.1999896983202477, 'epsilon': 0.6729796163150507, 'learning_rate': 'adaptive', 'momentum': 0.26668018193606735, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5283199925726499}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9560975609756097</v>
+        <v>0.9609756097560975</v>
       </c>
     </row>
     <row r="4">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.026466768750532547, 'beta_2': 0.937732718856959, 'epsilon': 0.21154464145418167, 'learning_rate': 'constant', 'momentum': 0.7759584418813597, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1580597336011924}</t>
+          <t>{'beta_1': 0.900106903707655, 'beta_2': 0.009365802526148359, 'epsilon': 0.10228756130139185, 'learning_rate': 'adaptive', 'momentum': 0.5024530743128972, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.898110969165408}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9609756097560975</v>
+        <v>0.975609756097561</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5114086881724245, 'beta_2': 0.5934257085111252, 'epsilon': 0.2008554721175046, 'learning_rate': 'invscaling', 'momentum': 0.9097412679862698, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3554509622689557}</t>
+          <t>{'beta_1': 0.8023409362111764, 'beta_2': 0.03714396089515617, 'epsilon': 0.7705495326661607, 'learning_rate': 'adaptive', 'momentum': 0.1648055898475378, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.13643236902046962}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9658536585365853</v>
+        <v>0.9463414634146341</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5694768312146749, 'beta_2': 0.7450179703622319, 'epsilon': 0.3526833540570616, 'learning_rate': 'invscaling', 'momentum': 0.9160233696334701, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6827553511108365}</t>
+          <t>{'beta_1': 0.14454644832421407, 'beta_2': 0.16787447884661194, 'epsilon': 0.06437100980051019, 'learning_rate': 'invscaling', 'momentum': 0.20825325212148382, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2153982043432382}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9560975609756097</v>
+        <v>0.9658536585365853</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9542478120828, 'beta_2': 0.5530798961168548, 'epsilon': 0.9357463476708033, 'learning_rate': 'invscaling', 'momentum': 0.9236518593869899, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19815949993946502}</t>
+          <t>{'beta_1': 0.06389131085486015, 'beta_2': 0.4851419683386883, 'epsilon': 0.9765176446047024, 'learning_rate': 'constant', 'momentum': 0.33815895183684563, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2317016264712045}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9560975609756097</v>
+        <v>0.9609756097560975</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.45135521106639614, 'beta_2': 0.7990301009575822, 'epsilon': 0.9595618757212115, 'learning_rate': 'constant', 'momentum': 0.07799281787582457, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.06659633223555117}</t>
+          <t>{'beta_1': 0.6975502293404723, 'beta_2': 0.33516267150622375, 'epsilon': 0.14753789262850064, 'learning_rate': 'invscaling', 'momentum': 0.24190170420148482, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5219962736299825}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.9560975609756097</v>
+        <v>0.9609756097560975</v>
       </c>
     </row>
     <row r="9">
@@ -756,7 +756,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.61323399556084, 'beta_2': 0.7156937147358908, 'epsilon': 0.2872158695089587, 'learning_rate': 'adaptive', 'momentum': 0.23454990206703086, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19026050892333246}</t>
+          <t>{'beta_1': 0.15351287622984, 'beta_2': 0.44404922963498833, 'epsilon': 0.49460123084919705, 'learning_rate': 'constant', 'momentum': 0.581856616157203, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5713805768779951}</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5496658014582771, 'beta_2': 0.35345242454898307, 'epsilon': 0.9850725912238489, 'learning_rate': 'constant', 'momentum': 0.7646330109588501, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.15851485058039905}</t>
+          <t>{'beta_1': 0.229046817885475, 'beta_2': 0.6847295177750642, 'epsilon': 0.525886126729427, 'learning_rate': 'adaptive', 'momentum': 0.8322388610488994, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9048267078810679}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.9609756097560975</v>
+        <v>0.9560975609756097</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.13533859015822777, 'beta_2': 0.29798404363007475, 'epsilon': 0.5693949457905636, 'learning_rate': 'invscaling', 'momentum': 0.5518162591332588, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9689617652602737}</t>
+          <t>{'beta_1': 0.5958366322842731, 'beta_2': 0.11740811726073401, 'epsilon': 0.9749079845501148, 'learning_rate': 'adaptive', 'momentum': 0.3917969385646658, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.2244669384017105}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.9560975609756097</v>
+        <v>0.9658536585365853</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.33989100308262865, 'beta_2': 0.2381323969631391, 'epsilon': 0.5098902102881291, 'learning_rate': 'invscaling', 'momentum': 0.2536073790650063, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9126706209463072}</t>
+          <t>{'beta_1': 0.8486357637336316, 'beta_2': 0.5962052156871164, 'epsilon': 0.6748570656712874, 'learning_rate': 'adaptive', 'momentum': 0.8178071324672784, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9357703614435252}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.9560975609756097</v>
+        <v>0.9609756097560975</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3887455424240846, 'beta_2': 0.9511905545981254, 'epsilon': 0.29972889055645363, 'learning_rate': 'adaptive', 'momentum': 0.8863046660865599, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9078755943543261}</t>
+          <t>{'beta_1': 0.824955554146974, 'beta_2': 0.29643507613087744, 'epsilon': 0.14667350486551128, 'learning_rate': 'invscaling', 'momentum': 0.3648573130917908, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9598271493776032}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.975609756097561</v>
+        <v>0.9560975609756097</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3589121456430256, 'beta_2': 0.3990994114057741, 'epsilon': 0.30152904505158906, 'learning_rate': 'constant', 'momentum': 0.23223414217094274, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9528706723868426}</t>
+          <t>{'beta_1': 0.5114086881724245, 'beta_2': 0.5934257085111252, 'epsilon': 0.2008554721175046, 'learning_rate': 'invscaling', 'momentum': 0.9097412679862698, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3554509622689557}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.9707317073170731</v>
+        <v>0.9560975609756097</v>
       </c>
     </row>
     <row r="15">
@@ -972,7 +972,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.23054316734460878, 'beta_2': 0.32559801588167764, 'epsilon': 0.7076519067695602, 'learning_rate': 'adaptive', 'momentum': 0.3709732519780914, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2795299433788142}</t>
+          <t>{'beta_1': 0.5694768312146749, 'beta_2': 0.7450179703622319, 'epsilon': 0.3526833540570616, 'learning_rate': 'invscaling', 'momentum': 0.9160233696334701, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6827553511108365}</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4601361519058461, 'beta_2': 0.9657710060996425, 'epsilon': 0.5341734662421768, 'learning_rate': 'adaptive', 'momentum': 0.6197720842759777, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.09884595187690437}</t>
+          <t>{'beta_1': 0.3589121456430256, 'beta_2': 0.3990994114057741, 'epsilon': 0.30152904505158906, 'learning_rate': 'constant', 'momentum': 0.23223414217094274, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9528706723868426}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.9609756097560975</v>
+        <v>0.9560975609756097</v>
       </c>
     </row>
     <row r="17">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8509567741744859, 'beta_2': 0.9614326787369897, 'epsilon': 0.1104117717586079, 'learning_rate': 'constant', 'momentum': 0.9979940009356586, 'nesterovs_momentum': False, 'solver': 'sgd', 'validation_fraction': 0.6033229922907446}</t>
+          <t>{'beta_1': 0.16007023585382313, 'beta_2': 0.6604563939965914, 'epsilon': 0.4398234890766623, 'learning_rate': 'adaptive', 'momentum': 0.3613056815897162, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8784926238627397}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.9804878048780488</v>
+        <v>0.6195121951219512</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.24955315384928356, 'beta_2': 0.010154777764660419, 'epsilon': 0.8302355151440006, 'learning_rate': 'constant', 'momentum': 0.23125495297968846, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9454309703916057}</t>
+          <t>{'beta_1': 0.4151926526743223, 'beta_2': 0.9356804910819219, 'epsilon': 0.7214618398138984, 'learning_rate': 'constant', 'momentum': 0.3719187485124613, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.24768502249231594}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.9658536585365853</v>
+        <v>0.9512195121951219</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7210508272903668, 'beta_2': 0.1642126340254742, 'epsilon': 0.0009120066213287138, 'learning_rate': 'constant', 'momentum': 0.5453139942248814, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6675590128316528}</t>
+          <t>{'beta_1': 0.9545104673724751, 'beta_2': 0.5977176533953225, 'epsilon': 0.11879802520386755, 'learning_rate': 'invscaling', 'momentum': 0.9087334407983848, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.14543560340536665}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.9463414634146341</v>
+        <v>0.9658536585365853</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.35532987330372157, 'beta_2': 0.8199044149280549, 'epsilon': 0.5030941477966999, 'learning_rate': 'adaptive', 'momentum': 0.4892254993109375, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.45311076628522495}</t>
+          <t>{'beta_1': 0.66957812472251, 'beta_2': 0.2207600533518455, 'epsilon': 0.3350163768849147, 'learning_rate': 'constant', 'momentum': 0.9666819873735142, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9328824379767133}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.9609756097560975</v>
+        <v>0.9560975609756097</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.48992948852783885, 'beta_2': 0.18516323839240345, 'epsilon': 0.9948194776666753, 'learning_rate': 'adaptive', 'momentum': 0.4714573193542654, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6444791031250725}</t>
+          <t>{'beta_1': 0.45370823451064424, 'beta_2': 0.3263741808864918, 'epsilon': 0.2325113851497778, 'learning_rate': 'constant', 'momentum': 0.8395129668196633, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5130748631715455}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.9560975609756097</v>
+        <v>0.9658536585365853</v>
       </c>
     </row>
   </sheetData>
